--- a/studios/studio4/Prob4.xlsx
+++ b/studios/studio4/Prob4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roncytron/git/cse247-f16-students/studios/studio4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arvind/git/cse247-f17-students-aradhak/studios/studio4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4872,1540 +4872,1540 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="512"/>
                 <c:pt idx="0">
-                  <c:v>4000.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8000.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12000.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16000.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20000.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24000.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28000.0</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32000.0</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36000.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40000.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48000.0</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52000.0</c:v>
+                  <c:v>312.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56000.0</c:v>
+                  <c:v>364.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60000.0</c:v>
+                  <c:v>420.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64000.0</c:v>
+                  <c:v>480.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68000.0</c:v>
+                  <c:v>544.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72000.0</c:v>
+                  <c:v>612.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76000.0</c:v>
+                  <c:v>684.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>80000.0</c:v>
+                  <c:v>760.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84000.0</c:v>
+                  <c:v>840.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>88000.0</c:v>
+                  <c:v>924.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92000.0</c:v>
+                  <c:v>1012.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>96000.0</c:v>
+                  <c:v>1104.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100000.0</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>104000.0</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>108000.0</c:v>
+                  <c:v>1404.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112000.0</c:v>
+                  <c:v>1512.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>116000.0</c:v>
+                  <c:v>1624.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>120000.0</c:v>
+                  <c:v>1740.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>124000.0</c:v>
+                  <c:v>1860.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>128000.0</c:v>
+                  <c:v>1984.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>132000.0</c:v>
+                  <c:v>2112.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>136000.0</c:v>
+                  <c:v>2244.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>140000.0</c:v>
+                  <c:v>2380.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>144000.0</c:v>
+                  <c:v>2520.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>148000.0</c:v>
+                  <c:v>2664.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>152000.0</c:v>
+                  <c:v>2812.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>156000.0</c:v>
+                  <c:v>2964.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>160000.0</c:v>
+                  <c:v>3120.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>164000.0</c:v>
+                  <c:v>3280.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>168000.0</c:v>
+                  <c:v>3444.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>172000.0</c:v>
+                  <c:v>3612.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>176000.0</c:v>
+                  <c:v>3784.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>180000.0</c:v>
+                  <c:v>3960.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>184000.0</c:v>
+                  <c:v>4140.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>188000.0</c:v>
+                  <c:v>4324.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>192000.0</c:v>
+                  <c:v>4512.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>196000.0</c:v>
+                  <c:v>4704.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>200000.0</c:v>
+                  <c:v>4900.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>204000.0</c:v>
+                  <c:v>5100.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>208000.0</c:v>
+                  <c:v>5304.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>212000.0</c:v>
+                  <c:v>5512.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>216000.0</c:v>
+                  <c:v>5724.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>220000.0</c:v>
+                  <c:v>5940.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>224000.0</c:v>
+                  <c:v>6160.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>228000.0</c:v>
+                  <c:v>6384.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>232000.0</c:v>
+                  <c:v>6612.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>236000.0</c:v>
+                  <c:v>6844.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>240000.0</c:v>
+                  <c:v>7080.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>244000.0</c:v>
+                  <c:v>7320.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>248000.0</c:v>
+                  <c:v>7564.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>252000.0</c:v>
+                  <c:v>7812.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>256000.0</c:v>
+                  <c:v>8064.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>260000.0</c:v>
+                  <c:v>8320.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>264000.0</c:v>
+                  <c:v>8580.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>268000.0</c:v>
+                  <c:v>8844.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>272000.0</c:v>
+                  <c:v>9112.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>276000.0</c:v>
+                  <c:v>9384.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>280000.0</c:v>
+                  <c:v>9660.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>284000.0</c:v>
+                  <c:v>9940.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>288000.0</c:v>
+                  <c:v>10224.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>292000.0</c:v>
+                  <c:v>10512.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>296000.0</c:v>
+                  <c:v>10804.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>300000.0</c:v>
+                  <c:v>11100.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>304000.0</c:v>
+                  <c:v>11400.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>308000.0</c:v>
+                  <c:v>11704.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>312000.0</c:v>
+                  <c:v>12012.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>316000.0</c:v>
+                  <c:v>12324.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>320000.0</c:v>
+                  <c:v>12640.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>324000.0</c:v>
+                  <c:v>12960.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>328000.0</c:v>
+                  <c:v>13284.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>332000.0</c:v>
+                  <c:v>13612.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>336000.0</c:v>
+                  <c:v>13944.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>340000.0</c:v>
+                  <c:v>14280.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>344000.0</c:v>
+                  <c:v>14620.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>348000.0</c:v>
+                  <c:v>14964.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>352000.0</c:v>
+                  <c:v>15312.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>356000.0</c:v>
+                  <c:v>15664.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>360000.0</c:v>
+                  <c:v>16020.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>364000.0</c:v>
+                  <c:v>16380.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>368000.0</c:v>
+                  <c:v>16744.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>372000.0</c:v>
+                  <c:v>17112.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>376000.0</c:v>
+                  <c:v>17484.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>380000.0</c:v>
+                  <c:v>17860.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>384000.0</c:v>
+                  <c:v>18240.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>388000.0</c:v>
+                  <c:v>18624.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>392000.0</c:v>
+                  <c:v>19012.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>396000.0</c:v>
+                  <c:v>19404.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>400000.0</c:v>
+                  <c:v>19800.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>404000.0</c:v>
+                  <c:v>20200.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>408000.0</c:v>
+                  <c:v>20604.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>412000.0</c:v>
+                  <c:v>21012.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>416000.0</c:v>
+                  <c:v>21424.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>420000.0</c:v>
+                  <c:v>21840.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>424000.0</c:v>
+                  <c:v>22260.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>428000.0</c:v>
+                  <c:v>22684.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>432000.0</c:v>
+                  <c:v>23112.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>436000.0</c:v>
+                  <c:v>23544.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>440000.0</c:v>
+                  <c:v>23980.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>444000.0</c:v>
+                  <c:v>24420.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>448000.0</c:v>
+                  <c:v>24864.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>452000.0</c:v>
+                  <c:v>25312.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>456000.0</c:v>
+                  <c:v>25764.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>460000.0</c:v>
+                  <c:v>26220.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>464000.0</c:v>
+                  <c:v>26680.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>468000.0</c:v>
+                  <c:v>27144.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>472000.0</c:v>
+                  <c:v>27612.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>476000.0</c:v>
+                  <c:v>28084.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>480000.0</c:v>
+                  <c:v>28560.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>484000.0</c:v>
+                  <c:v>29040.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>488000.0</c:v>
+                  <c:v>29524.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>492000.0</c:v>
+                  <c:v>30012.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>496000.0</c:v>
+                  <c:v>30504.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>500000.0</c:v>
+                  <c:v>31000.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>504000.0</c:v>
+                  <c:v>31500.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>508000.0</c:v>
+                  <c:v>32004.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>512000.0</c:v>
+                  <c:v>32512.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>516000.0</c:v>
+                  <c:v>33024.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>520000.0</c:v>
+                  <c:v>33540.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>524000.0</c:v>
+                  <c:v>34060.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>528000.0</c:v>
+                  <c:v>34584.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>532000.0</c:v>
+                  <c:v>35112.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>536000.0</c:v>
+                  <c:v>35644.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>540000.0</c:v>
+                  <c:v>36180.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>544000.0</c:v>
+                  <c:v>36720.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>548000.0</c:v>
+                  <c:v>37264.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>552000.0</c:v>
+                  <c:v>37812.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>556000.0</c:v>
+                  <c:v>38364.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>560000.0</c:v>
+                  <c:v>38920.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>564000.0</c:v>
+                  <c:v>39480.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>568000.0</c:v>
+                  <c:v>40044.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>572000.0</c:v>
+                  <c:v>40612.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>576000.0</c:v>
+                  <c:v>41184.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>580000.0</c:v>
+                  <c:v>41760.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>584000.0</c:v>
+                  <c:v>42340.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>588000.0</c:v>
+                  <c:v>42924.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>592000.0</c:v>
+                  <c:v>43512.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>596000.0</c:v>
+                  <c:v>44104.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>600000.0</c:v>
+                  <c:v>44700.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>604000.0</c:v>
+                  <c:v>45300.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>608000.0</c:v>
+                  <c:v>45904.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>612000.0</c:v>
+                  <c:v>46512.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>616000.0</c:v>
+                  <c:v>47124.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>620000.0</c:v>
+                  <c:v>47740.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>624000.0</c:v>
+                  <c:v>48360.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>628000.0</c:v>
+                  <c:v>48984.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>632000.0</c:v>
+                  <c:v>49612.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>636000.0</c:v>
+                  <c:v>50244.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>640000.0</c:v>
+                  <c:v>50880.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>644000.0</c:v>
+                  <c:v>51520.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>648000.0</c:v>
+                  <c:v>52164.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>652000.0</c:v>
+                  <c:v>52812.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>656000.0</c:v>
+                  <c:v>53464.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>660000.0</c:v>
+                  <c:v>54120.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>664000.0</c:v>
+                  <c:v>54780.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>668000.0</c:v>
+                  <c:v>55444.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>672000.0</c:v>
+                  <c:v>56112.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>676000.0</c:v>
+                  <c:v>56784.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>680000.0</c:v>
+                  <c:v>57460.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>684000.0</c:v>
+                  <c:v>58140.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>688000.0</c:v>
+                  <c:v>58824.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>692000.0</c:v>
+                  <c:v>59512.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>696000.0</c:v>
+                  <c:v>60204.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>700000.0</c:v>
+                  <c:v>60900.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>704000.0</c:v>
+                  <c:v>61600.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>708000.0</c:v>
+                  <c:v>62304.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>712000.0</c:v>
+                  <c:v>63012.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>716000.0</c:v>
+                  <c:v>63724.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>720000.0</c:v>
+                  <c:v>64440.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>724000.0</c:v>
+                  <c:v>65160.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>728000.0</c:v>
+                  <c:v>65884.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>732000.0</c:v>
+                  <c:v>66612.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>736000.0</c:v>
+                  <c:v>67344.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>740000.0</c:v>
+                  <c:v>68080.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>744000.0</c:v>
+                  <c:v>68820.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>748000.0</c:v>
+                  <c:v>69564.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>752000.0</c:v>
+                  <c:v>70312.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>756000.0</c:v>
+                  <c:v>71064.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>760000.0</c:v>
+                  <c:v>71820.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>764000.0</c:v>
+                  <c:v>72580.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>768000.0</c:v>
+                  <c:v>73344.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>772000.0</c:v>
+                  <c:v>74112.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>776000.0</c:v>
+                  <c:v>74884.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>780000.0</c:v>
+                  <c:v>75660.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>784000.0</c:v>
+                  <c:v>76440.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>788000.0</c:v>
+                  <c:v>77224.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>792000.0</c:v>
+                  <c:v>78012.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>796000.0</c:v>
+                  <c:v>78804.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>800000.0</c:v>
+                  <c:v>79600.0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>804000.0</c:v>
+                  <c:v>80400.0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>808000.0</c:v>
+                  <c:v>81204.0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>812000.0</c:v>
+                  <c:v>82012.0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>816000.0</c:v>
+                  <c:v>82824.0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>820000.0</c:v>
+                  <c:v>83640.0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>824000.0</c:v>
+                  <c:v>84460.0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>828000.0</c:v>
+                  <c:v>85284.0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>832000.0</c:v>
+                  <c:v>86112.0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>836000.0</c:v>
+                  <c:v>86944.0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>840000.0</c:v>
+                  <c:v>87780.0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>844000.0</c:v>
+                  <c:v>88620.0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>848000.0</c:v>
+                  <c:v>89464.0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>852000.0</c:v>
+                  <c:v>90312.0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>856000.0</c:v>
+                  <c:v>91164.0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>860000.0</c:v>
+                  <c:v>92020.0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>864000.0</c:v>
+                  <c:v>92880.0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>868000.0</c:v>
+                  <c:v>93744.0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>872000.0</c:v>
+                  <c:v>94612.0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>876000.0</c:v>
+                  <c:v>95484.0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>880000.0</c:v>
+                  <c:v>96360.0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>884000.0</c:v>
+                  <c:v>97240.0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>888000.0</c:v>
+                  <c:v>98124.0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>892000.0</c:v>
+                  <c:v>99012.0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>896000.0</c:v>
+                  <c:v>99904.0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>900000.0</c:v>
+                  <c:v>100800.0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>904000.0</c:v>
+                  <c:v>101700.0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>908000.0</c:v>
+                  <c:v>102604.0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>912000.0</c:v>
+                  <c:v>103512.0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>916000.0</c:v>
+                  <c:v>104424.0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>920000.0</c:v>
+                  <c:v>105340.0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>924000.0</c:v>
+                  <c:v>106260.0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>928000.0</c:v>
+                  <c:v>107184.0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>932000.0</c:v>
+                  <c:v>108112.0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>936000.0</c:v>
+                  <c:v>109044.0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>940000.0</c:v>
+                  <c:v>109980.0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>944000.0</c:v>
+                  <c:v>110920.0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>948000.0</c:v>
+                  <c:v>111864.0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>952000.0</c:v>
+                  <c:v>112812.0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>956000.0</c:v>
+                  <c:v>113764.0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>960000.0</c:v>
+                  <c:v>114720.0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>964000.0</c:v>
+                  <c:v>115680.0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>968000.0</c:v>
+                  <c:v>116644.0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>972000.0</c:v>
+                  <c:v>117612.0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>976000.0</c:v>
+                  <c:v>118584.0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>980000.0</c:v>
+                  <c:v>119560.0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>984000.0</c:v>
+                  <c:v>120540.0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>988000.0</c:v>
+                  <c:v>121524.0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>992000.0</c:v>
+                  <c:v>122512.0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>996000.0</c:v>
+                  <c:v>123504.0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1.0E6</c:v>
+                  <c:v>124500.0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1.004E6</c:v>
+                  <c:v>125500.0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1.008E6</c:v>
+                  <c:v>126504.0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1.012E6</c:v>
+                  <c:v>127512.0</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1.016E6</c:v>
+                  <c:v>128524.0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1.02E6</c:v>
+                  <c:v>129540.0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1.024E6</c:v>
+                  <c:v>130560.0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1.028E6</c:v>
+                  <c:v>131584.0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1.032E6</c:v>
+                  <c:v>132612.0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1.036E6</c:v>
+                  <c:v>133644.0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1.04E6</c:v>
+                  <c:v>134680.0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1.044E6</c:v>
+                  <c:v>135720.0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>1.048E6</c:v>
+                  <c:v>136764.0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>1.052E6</c:v>
+                  <c:v>137812.0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>1.056E6</c:v>
+                  <c:v>138864.0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>1.06E6</c:v>
+                  <c:v>139920.0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>1.064E6</c:v>
+                  <c:v>140980.0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>1.068E6</c:v>
+                  <c:v>142044.0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>1.072E6</c:v>
+                  <c:v>143112.0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>1.076E6</c:v>
+                  <c:v>144184.0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>1.08E6</c:v>
+                  <c:v>145260.0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>1.084E6</c:v>
+                  <c:v>146340.0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>1.088E6</c:v>
+                  <c:v>147424.0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>1.092E6</c:v>
+                  <c:v>148512.0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>1.096E6</c:v>
+                  <c:v>149604.0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>1.1E6</c:v>
+                  <c:v>150700.0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>1.104E6</c:v>
+                  <c:v>151800.0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>1.108E6</c:v>
+                  <c:v>152904.0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>1.112E6</c:v>
+                  <c:v>154012.0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>1.116E6</c:v>
+                  <c:v>155124.0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>1.12E6</c:v>
+                  <c:v>156240.0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>1.124E6</c:v>
+                  <c:v>157360.0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>1.128E6</c:v>
+                  <c:v>158484.0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>1.132E6</c:v>
+                  <c:v>159612.0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>1.136E6</c:v>
+                  <c:v>160744.0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>1.14E6</c:v>
+                  <c:v>161880.0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>1.144E6</c:v>
+                  <c:v>163020.0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>1.148E6</c:v>
+                  <c:v>164164.0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>1.152E6</c:v>
+                  <c:v>165312.0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>1.156E6</c:v>
+                  <c:v>166464.0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1.16E6</c:v>
+                  <c:v>167620.0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.164E6</c:v>
+                  <c:v>168780.0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.168E6</c:v>
+                  <c:v>169944.0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.172E6</c:v>
+                  <c:v>171112.0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.176E6</c:v>
+                  <c:v>172284.0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.18E6</c:v>
+                  <c:v>173460.0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.184E6</c:v>
+                  <c:v>174640.0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.188E6</c:v>
+                  <c:v>175824.0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.192E6</c:v>
+                  <c:v>177012.0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1.196E6</c:v>
+                  <c:v>178204.0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1.2E6</c:v>
+                  <c:v>179400.0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1.204E6</c:v>
+                  <c:v>180600.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.208E6</c:v>
+                  <c:v>181804.0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.212E6</c:v>
+                  <c:v>183012.0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.216E6</c:v>
+                  <c:v>184224.0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.22E6</c:v>
+                  <c:v>185440.0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.224E6</c:v>
+                  <c:v>186660.0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.228E6</c:v>
+                  <c:v>187884.0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.232E6</c:v>
+                  <c:v>189112.0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.236E6</c:v>
+                  <c:v>190344.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.24E6</c:v>
+                  <c:v>191580.0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.244E6</c:v>
+                  <c:v>192820.0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.248E6</c:v>
+                  <c:v>194064.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.252E6</c:v>
+                  <c:v>195312.0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.256E6</c:v>
+                  <c:v>196564.0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.26E6</c:v>
+                  <c:v>197820.0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.264E6</c:v>
+                  <c:v>199080.0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.268E6</c:v>
+                  <c:v>200344.0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.272E6</c:v>
+                  <c:v>201612.0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.276E6</c:v>
+                  <c:v>202884.0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.28E6</c:v>
+                  <c:v>204160.0</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1.284E6</c:v>
+                  <c:v>205440.0</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>1.288E6</c:v>
+                  <c:v>206724.0</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>1.292E6</c:v>
+                  <c:v>208012.0</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>1.296E6</c:v>
+                  <c:v>209304.0</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>1.3E6</c:v>
+                  <c:v>210600.0</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>1.304E6</c:v>
+                  <c:v>211900.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>1.308E6</c:v>
+                  <c:v>213204.0</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>1.312E6</c:v>
+                  <c:v>214512.0</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>1.316E6</c:v>
+                  <c:v>215824.0</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1.32E6</c:v>
+                  <c:v>217140.0</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1.324E6</c:v>
+                  <c:v>218460.0</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>1.328E6</c:v>
+                  <c:v>219784.0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>1.332E6</c:v>
+                  <c:v>221112.0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1.336E6</c:v>
+                  <c:v>222444.0</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>1.34E6</c:v>
+                  <c:v>223780.0</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>1.344E6</c:v>
+                  <c:v>225120.0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>1.348E6</c:v>
+                  <c:v>226464.0</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>1.352E6</c:v>
+                  <c:v>227812.0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>1.356E6</c:v>
+                  <c:v>229164.0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1.36E6</c:v>
+                  <c:v>230520.0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>1.364E6</c:v>
+                  <c:v>231880.0</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1.368E6</c:v>
+                  <c:v>233244.0</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>1.372E6</c:v>
+                  <c:v>234612.0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1.376E6</c:v>
+                  <c:v>235984.0</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>1.38E6</c:v>
+                  <c:v>237360.0</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1.384E6</c:v>
+                  <c:v>238740.0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1.388E6</c:v>
+                  <c:v>240124.0</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1.392E6</c:v>
+                  <c:v>241512.0</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>1.396E6</c:v>
+                  <c:v>242904.0</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>1.4E6</c:v>
+                  <c:v>244300.0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1.404E6</c:v>
+                  <c:v>245700.0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1.408E6</c:v>
+                  <c:v>247104.0</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1.412E6</c:v>
+                  <c:v>248512.0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1.416E6</c:v>
+                  <c:v>249924.0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.42E6</c:v>
+                  <c:v>251340.0</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1.424E6</c:v>
+                  <c:v>252760.0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1.428E6</c:v>
+                  <c:v>254184.0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1.432E6</c:v>
+                  <c:v>255612.0</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1.436E6</c:v>
+                  <c:v>257044.0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1.44E6</c:v>
+                  <c:v>258480.0</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1.444E6</c:v>
+                  <c:v>259920.0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1.448E6</c:v>
+                  <c:v>261364.0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1.452E6</c:v>
+                  <c:v>262812.0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.456E6</c:v>
+                  <c:v>264264.0</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.46E6</c:v>
+                  <c:v>265720.0</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>1.464E6</c:v>
+                  <c:v>267180.0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>1.468E6</c:v>
+                  <c:v>268644.0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>1.472E6</c:v>
+                  <c:v>270112.0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>1.476E6</c:v>
+                  <c:v>271584.0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>1.48E6</c:v>
+                  <c:v>273060.0</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>1.484E6</c:v>
+                  <c:v>274540.0</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>1.488E6</c:v>
+                  <c:v>276024.0</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>1.492E6</c:v>
+                  <c:v>277512.0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>1.496E6</c:v>
+                  <c:v>279004.0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>1.5E6</c:v>
+                  <c:v>280500.0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>1.504E6</c:v>
+                  <c:v>282000.0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>1.508E6</c:v>
+                  <c:v>283504.0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>1.512E6</c:v>
+                  <c:v>285012.0</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>1.516E6</c:v>
+                  <c:v>286524.0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>1.52E6</c:v>
+                  <c:v>288040.0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>1.524E6</c:v>
+                  <c:v>289560.0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>1.528E6</c:v>
+                  <c:v>291084.0</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>1.532E6</c:v>
+                  <c:v>292612.0</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>1.536E6</c:v>
+                  <c:v>294144.0</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>1.54E6</c:v>
+                  <c:v>295680.0</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>1.544E6</c:v>
+                  <c:v>297220.0</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>1.548E6</c:v>
+                  <c:v>298764.0</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>1.552E6</c:v>
+                  <c:v>300312.0</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>1.556E6</c:v>
+                  <c:v>301864.0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>1.56E6</c:v>
+                  <c:v>303420.0</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>1.564E6</c:v>
+                  <c:v>304980.0</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>1.568E6</c:v>
+                  <c:v>306544.0</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>1.572E6</c:v>
+                  <c:v>308112.0</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>1.576E6</c:v>
+                  <c:v>309684.0</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>1.58E6</c:v>
+                  <c:v>311260.0</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>1.584E6</c:v>
+                  <c:v>312840.0</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>1.588E6</c:v>
+                  <c:v>314424.0</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>1.592E6</c:v>
+                  <c:v>316012.0</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>1.596E6</c:v>
+                  <c:v>317604.0</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>1.6E6</c:v>
+                  <c:v>319200.0</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>1.604E6</c:v>
+                  <c:v>320800.0</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>1.608E6</c:v>
+                  <c:v>322404.0</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>1.612E6</c:v>
+                  <c:v>324012.0</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>1.616E6</c:v>
+                  <c:v>325624.0</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>1.62E6</c:v>
+                  <c:v>327240.0</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>1.624E6</c:v>
+                  <c:v>328860.0</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>1.628E6</c:v>
+                  <c:v>330484.0</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>1.632E6</c:v>
+                  <c:v>332112.0</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>1.636E6</c:v>
+                  <c:v>333744.0</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>1.64E6</c:v>
+                  <c:v>335380.0</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>1.644E6</c:v>
+                  <c:v>337020.0</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>1.648E6</c:v>
+                  <c:v>338664.0</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>1.652E6</c:v>
+                  <c:v>340312.0</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>1.656E6</c:v>
+                  <c:v>341964.0</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>1.66E6</c:v>
+                  <c:v>343620.0</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>1.664E6</c:v>
+                  <c:v>345280.0</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>1.668E6</c:v>
+                  <c:v>346944.0</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>1.672E6</c:v>
+                  <c:v>348612.0</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>1.676E6</c:v>
+                  <c:v>350284.0</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>1.68E6</c:v>
+                  <c:v>351960.0</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>1.684E6</c:v>
+                  <c:v>353640.0</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>1.688E6</c:v>
+                  <c:v>355324.0</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>1.692E6</c:v>
+                  <c:v>357012.0</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>1.696E6</c:v>
+                  <c:v>358704.0</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>1.7E6</c:v>
+                  <c:v>360400.0</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>1.704E6</c:v>
+                  <c:v>362100.0</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>1.708E6</c:v>
+                  <c:v>363804.0</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>1.712E6</c:v>
+                  <c:v>365512.0</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>1.716E6</c:v>
+                  <c:v>367224.0</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>1.72E6</c:v>
+                  <c:v>368940.0</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>1.724E6</c:v>
+                  <c:v>370660.0</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>1.728E6</c:v>
+                  <c:v>372384.0</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>1.732E6</c:v>
+                  <c:v>374112.0</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>1.736E6</c:v>
+                  <c:v>375844.0</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>1.74E6</c:v>
+                  <c:v>377580.0</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>1.744E6</c:v>
+                  <c:v>379320.0</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>1.748E6</c:v>
+                  <c:v>381064.0</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>1.752E6</c:v>
+                  <c:v>382812.0</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>1.756E6</c:v>
+                  <c:v>384564.0</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>1.76E6</c:v>
+                  <c:v>386320.0</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>1.764E6</c:v>
+                  <c:v>388080.0</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>1.768E6</c:v>
+                  <c:v>389844.0</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>1.772E6</c:v>
+                  <c:v>391612.0</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>1.776E6</c:v>
+                  <c:v>393384.0</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>1.78E6</c:v>
+                  <c:v>395160.0</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>1.784E6</c:v>
+                  <c:v>396940.0</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>1.788E6</c:v>
+                  <c:v>398724.0</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>1.792E6</c:v>
+                  <c:v>400512.0</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>1.796E6</c:v>
+                  <c:v>402304.0</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>1.8E6</c:v>
+                  <c:v>404100.0</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>1.804E6</c:v>
+                  <c:v>405900.0</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>1.808E6</c:v>
+                  <c:v>407704.0</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>1.812E6</c:v>
+                  <c:v>409512.0</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>1.816E6</c:v>
+                  <c:v>411324.0</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>1.82E6</c:v>
+                  <c:v>413140.0</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>1.824E6</c:v>
+                  <c:v>414960.0</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>1.828E6</c:v>
+                  <c:v>416784.0</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>1.832E6</c:v>
+                  <c:v>418612.0</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>1.836E6</c:v>
+                  <c:v>420444.0</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>1.84E6</c:v>
+                  <c:v>422280.0</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>1.844E6</c:v>
+                  <c:v>424120.0</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>1.848E6</c:v>
+                  <c:v>425964.0</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>1.852E6</c:v>
+                  <c:v>427812.0</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>1.856E6</c:v>
+                  <c:v>429664.0</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>1.86E6</c:v>
+                  <c:v>431520.0</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>1.864E6</c:v>
+                  <c:v>433380.0</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>1.868E6</c:v>
+                  <c:v>435244.0</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>1.872E6</c:v>
+                  <c:v>437112.0</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>1.876E6</c:v>
+                  <c:v>438984.0</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>1.88E6</c:v>
+                  <c:v>440860.0</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>1.884E6</c:v>
+                  <c:v>442740.0</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>1.888E6</c:v>
+                  <c:v>444624.0</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>1.892E6</c:v>
+                  <c:v>446512.0</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>1.896E6</c:v>
+                  <c:v>448404.0</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>1.9E6</c:v>
+                  <c:v>450300.0</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>1.904E6</c:v>
+                  <c:v>452200.0</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>1.908E6</c:v>
+                  <c:v>454104.0</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>1.912E6</c:v>
+                  <c:v>456012.0</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>1.916E6</c:v>
+                  <c:v>457924.0</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>1.92E6</c:v>
+                  <c:v>459840.0</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>1.924E6</c:v>
+                  <c:v>461760.0</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>1.928E6</c:v>
+                  <c:v>463684.0</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>1.932E6</c:v>
+                  <c:v>465612.0</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>1.936E6</c:v>
+                  <c:v>467544.0</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>1.94E6</c:v>
+                  <c:v>469480.0</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>1.944E6</c:v>
+                  <c:v>471420.0</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>1.948E6</c:v>
+                  <c:v>473364.0</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>1.952E6</c:v>
+                  <c:v>475312.0</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>1.956E6</c:v>
+                  <c:v>477264.0</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>1.96E6</c:v>
+                  <c:v>479220.0</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>1.964E6</c:v>
+                  <c:v>481180.0</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>1.968E6</c:v>
+                  <c:v>483144.0</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>1.972E6</c:v>
+                  <c:v>485112.0</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>1.976E6</c:v>
+                  <c:v>487084.0</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>1.98E6</c:v>
+                  <c:v>489060.0</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>1.984E6</c:v>
+                  <c:v>491040.0</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>1.988E6</c:v>
+                  <c:v>493024.0</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>1.992E6</c:v>
+                  <c:v>495012.0</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>1.996E6</c:v>
+                  <c:v>497004.0</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>2.0E6</c:v>
+                  <c:v>499000.0</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>2.004E6</c:v>
+                  <c:v>501000.0</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>2.008E6</c:v>
+                  <c:v>503004.0</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>2.012E6</c:v>
+                  <c:v>505012.0</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>2.016E6</c:v>
+                  <c:v>507024.0</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>2.02E6</c:v>
+                  <c:v>509040.0</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>2.024E6</c:v>
+                  <c:v>511060.0</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>2.028E6</c:v>
+                  <c:v>513084.0</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>2.032E6</c:v>
+                  <c:v>515112.0</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>2.036E6</c:v>
+                  <c:v>517144.0</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>2.04E6</c:v>
+                  <c:v>519180.0</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>2.044E6</c:v>
+                  <c:v>521220.0</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>2.048E6</c:v>
+                  <c:v>523264.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6420,11 +6420,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-108409296"/>
-        <c:axId val="-108404640"/>
+        <c:axId val="-1674850992"/>
+        <c:axId val="-1660030624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-108409296"/>
+        <c:axId val="-1674850992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6480,12 +6480,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-108404640"/>
+        <c:crossAx val="-1660030624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-108404640"/>
+        <c:axId val="-1660030624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6505,6 +6505,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6541,7 +6542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-108409296"/>
+        <c:crossAx val="-1674850992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7479,7 +7480,7 @@
   <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2:D513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7519,8 +7520,8 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <f>4000*A2</f>
-        <v>4000</v>
+        <f>2*A2*A2 - 2*A2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7536,8 +7537,8 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="2">4000*A3</f>
-        <v>8000</v>
+        <f t="shared" ref="D3:D66" si="2">2*A3*A3 - 2*A3</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7554,7 +7555,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7571,7 +7572,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7588,7 +7589,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7605,7 +7606,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>24000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7622,7 +7623,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>28000</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -7639,7 +7640,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>32000</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -7656,7 +7657,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>36000</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7673,7 +7674,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7690,7 +7691,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>44000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -7707,7 +7708,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -7724,7 +7725,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>52000</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -7741,7 +7742,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>56000</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -7758,7 +7759,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -7775,7 +7776,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>64000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -7792,7 +7793,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>68000</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -7809,7 +7810,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>72000</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -7826,7 +7827,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>76000</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -7843,7 +7844,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7860,7 +7861,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>84000</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -7877,7 +7878,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>88000</v>
+        <v>924</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -7894,7 +7895,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>92000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7911,7 +7912,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>96000</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7928,7 +7929,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>100000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7945,7 +7946,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>104000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -7962,7 +7963,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>108000</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7979,7 +7980,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>112000</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7996,7 +7997,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>116000</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -8013,7 +8014,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -8030,7 +8031,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>124000</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -8047,7 +8048,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>128000</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -8064,7 +8065,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>132000</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -8081,7 +8082,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>136000</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -8098,7 +8099,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>140000</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -8115,7 +8116,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>144000</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -8132,7 +8133,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>148000</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -8149,7 +8150,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>152000</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -8166,7 +8167,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>156000</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -8183,7 +8184,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>160000</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -8200,7 +8201,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>164000</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -8217,7 +8218,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>168000</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -8234,7 +8235,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>172000</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -8251,7 +8252,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>176000</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -8268,7 +8269,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>180000</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -8285,7 +8286,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>184000</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -8302,7 +8303,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>188000</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -8319,7 +8320,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>192000</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -8336,7 +8337,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>196000</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -8353,7 +8354,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>200000</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -8370,7 +8371,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>204000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -8387,7 +8388,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>208000</v>
+        <v>5304</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -8404,7 +8405,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>212000</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -8421,7 +8422,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>216000</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -8438,7 +8439,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>220000</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -8455,7 +8456,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>224000</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -8472,7 +8473,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>228000</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -8489,7 +8490,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>232000</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -8506,7 +8507,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>236000</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -8523,7 +8524,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>240000</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -8540,7 +8541,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>244000</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -8557,7 +8558,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>248000</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -8574,7 +8575,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>252000</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -8591,7 +8592,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>256000</v>
+        <v>8064</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -8608,7 +8609,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>260000</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -8624,8 +8625,8 @@
         <v>16268</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="5">4000*A67</f>
-        <v>264000</v>
+        <f t="shared" ref="D67:D130" si="5">2*A67*A67 - 2*A67</f>
+        <v>8580</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -8642,7 +8643,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="5"/>
-        <v>268000</v>
+        <v>8844</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -8659,7 +8660,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="5"/>
-        <v>272000</v>
+        <v>9112</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -8676,7 +8677,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="5"/>
-        <v>276000</v>
+        <v>9384</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -8693,7 +8694,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="5"/>
-        <v>280000</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -8710,7 +8711,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="5"/>
-        <v>284000</v>
+        <v>9940</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -8727,7 +8728,7 @@
       </c>
       <c r="D73">
         <f t="shared" si="5"/>
-        <v>288000</v>
+        <v>10224</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -8744,7 +8745,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="5"/>
-        <v>292000</v>
+        <v>10512</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -8761,7 +8762,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="5"/>
-        <v>296000</v>
+        <v>10804</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -8778,7 +8779,7 @@
       </c>
       <c r="D76">
         <f t="shared" si="5"/>
-        <v>300000</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -8795,7 +8796,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="5"/>
-        <v>304000</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -8812,7 +8813,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="5"/>
-        <v>308000</v>
+        <v>11704</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -8829,7 +8830,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="5"/>
-        <v>312000</v>
+        <v>12012</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -8846,7 +8847,7 @@
       </c>
       <c r="D80">
         <f t="shared" si="5"/>
-        <v>316000</v>
+        <v>12324</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -8863,7 +8864,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="5"/>
-        <v>320000</v>
+        <v>12640</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -8880,7 +8881,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="5"/>
-        <v>324000</v>
+        <v>12960</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -8897,7 +8898,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="5"/>
-        <v>328000</v>
+        <v>13284</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -8914,7 +8915,7 @@
       </c>
       <c r="D84">
         <f t="shared" si="5"/>
-        <v>332000</v>
+        <v>13612</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -8931,7 +8932,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="5"/>
-        <v>336000</v>
+        <v>13944</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -8948,7 +8949,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="5"/>
-        <v>340000</v>
+        <v>14280</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -8965,7 +8966,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="5"/>
-        <v>344000</v>
+        <v>14620</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -8982,7 +8983,7 @@
       </c>
       <c r="D88">
         <f t="shared" si="5"/>
-        <v>348000</v>
+        <v>14964</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -8999,7 +9000,7 @@
       </c>
       <c r="D89">
         <f t="shared" si="5"/>
-        <v>352000</v>
+        <v>15312</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -9016,7 +9017,7 @@
       </c>
       <c r="D90">
         <f t="shared" si="5"/>
-        <v>356000</v>
+        <v>15664</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -9033,7 +9034,7 @@
       </c>
       <c r="D91">
         <f t="shared" si="5"/>
-        <v>360000</v>
+        <v>16020</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -9050,7 +9051,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="5"/>
-        <v>364000</v>
+        <v>16380</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -9067,7 +9068,7 @@
       </c>
       <c r="D93">
         <f t="shared" si="5"/>
-        <v>368000</v>
+        <v>16744</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -9084,7 +9085,7 @@
       </c>
       <c r="D94">
         <f t="shared" si="5"/>
-        <v>372000</v>
+        <v>17112</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -9101,7 +9102,7 @@
       </c>
       <c r="D95">
         <f t="shared" si="5"/>
-        <v>376000</v>
+        <v>17484</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -9118,7 +9119,7 @@
       </c>
       <c r="D96">
         <f t="shared" si="5"/>
-        <v>380000</v>
+        <v>17860</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -9135,7 +9136,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="5"/>
-        <v>384000</v>
+        <v>18240</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -9152,7 +9153,7 @@
       </c>
       <c r="D98">
         <f t="shared" si="5"/>
-        <v>388000</v>
+        <v>18624</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -9169,7 +9170,7 @@
       </c>
       <c r="D99">
         <f t="shared" si="5"/>
-        <v>392000</v>
+        <v>19012</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -9186,7 +9187,7 @@
       </c>
       <c r="D100">
         <f t="shared" si="5"/>
-        <v>396000</v>
+        <v>19404</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -9203,7 +9204,7 @@
       </c>
       <c r="D101">
         <f t="shared" si="5"/>
-        <v>400000</v>
+        <v>19800</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -9220,7 +9221,7 @@
       </c>
       <c r="D102">
         <f t="shared" si="5"/>
-        <v>404000</v>
+        <v>20200</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -9237,7 +9238,7 @@
       </c>
       <c r="D103">
         <f t="shared" si="5"/>
-        <v>408000</v>
+        <v>20604</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -9254,7 +9255,7 @@
       </c>
       <c r="D104">
         <f t="shared" si="5"/>
-        <v>412000</v>
+        <v>21012</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -9271,7 +9272,7 @@
       </c>
       <c r="D105">
         <f t="shared" si="5"/>
-        <v>416000</v>
+        <v>21424</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -9288,7 +9289,7 @@
       </c>
       <c r="D106">
         <f t="shared" si="5"/>
-        <v>420000</v>
+        <v>21840</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -9305,7 +9306,7 @@
       </c>
       <c r="D107">
         <f t="shared" si="5"/>
-        <v>424000</v>
+        <v>22260</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -9322,7 +9323,7 @@
       </c>
       <c r="D108">
         <f t="shared" si="5"/>
-        <v>428000</v>
+        <v>22684</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -9339,7 +9340,7 @@
       </c>
       <c r="D109">
         <f t="shared" si="5"/>
-        <v>432000</v>
+        <v>23112</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -9356,7 +9357,7 @@
       </c>
       <c r="D110">
         <f t="shared" si="5"/>
-        <v>436000</v>
+        <v>23544</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -9373,7 +9374,7 @@
       </c>
       <c r="D111">
         <f t="shared" si="5"/>
-        <v>440000</v>
+        <v>23980</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -9390,7 +9391,7 @@
       </c>
       <c r="D112">
         <f t="shared" si="5"/>
-        <v>444000</v>
+        <v>24420</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -9407,7 +9408,7 @@
       </c>
       <c r="D113">
         <f t="shared" si="5"/>
-        <v>448000</v>
+        <v>24864</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -9424,7 +9425,7 @@
       </c>
       <c r="D114">
         <f t="shared" si="5"/>
-        <v>452000</v>
+        <v>25312</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -9441,7 +9442,7 @@
       </c>
       <c r="D115">
         <f t="shared" si="5"/>
-        <v>456000</v>
+        <v>25764</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -9458,7 +9459,7 @@
       </c>
       <c r="D116">
         <f t="shared" si="5"/>
-        <v>460000</v>
+        <v>26220</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -9475,7 +9476,7 @@
       </c>
       <c r="D117">
         <f t="shared" si="5"/>
-        <v>464000</v>
+        <v>26680</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -9492,7 +9493,7 @@
       </c>
       <c r="D118">
         <f t="shared" si="5"/>
-        <v>468000</v>
+        <v>27144</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -9509,7 +9510,7 @@
       </c>
       <c r="D119">
         <f t="shared" si="5"/>
-        <v>472000</v>
+        <v>27612</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -9526,7 +9527,7 @@
       </c>
       <c r="D120">
         <f t="shared" si="5"/>
-        <v>476000</v>
+        <v>28084</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -9543,7 +9544,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="5"/>
-        <v>480000</v>
+        <v>28560</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -9560,7 +9561,7 @@
       </c>
       <c r="D122">
         <f t="shared" si="5"/>
-        <v>484000</v>
+        <v>29040</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -9577,7 +9578,7 @@
       </c>
       <c r="D123">
         <f t="shared" si="5"/>
-        <v>488000</v>
+        <v>29524</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -9594,7 +9595,7 @@
       </c>
       <c r="D124">
         <f t="shared" si="5"/>
-        <v>492000</v>
+        <v>30012</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -9611,7 +9612,7 @@
       </c>
       <c r="D125">
         <f t="shared" si="5"/>
-        <v>496000</v>
+        <v>30504</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -9628,7 +9629,7 @@
       </c>
       <c r="D126">
         <f t="shared" si="5"/>
-        <v>500000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -9645,7 +9646,7 @@
       </c>
       <c r="D127">
         <f t="shared" si="5"/>
-        <v>504000</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -9662,7 +9663,7 @@
       </c>
       <c r="D128">
         <f t="shared" si="5"/>
-        <v>508000</v>
+        <v>32004</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -9679,7 +9680,7 @@
       </c>
       <c r="D129">
         <f t="shared" si="5"/>
-        <v>512000</v>
+        <v>32512</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -9696,7 +9697,7 @@
       </c>
       <c r="D130">
         <f t="shared" si="5"/>
-        <v>516000</v>
+        <v>33024</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -9712,8 +9713,8 @@
         <v>65292</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="8">4000*A131</f>
-        <v>520000</v>
+        <f t="shared" ref="D131:D194" si="8">2*A131*A131 - 2*A131</f>
+        <v>33540</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -9730,7 +9731,7 @@
       </c>
       <c r="D132">
         <f t="shared" si="8"/>
-        <v>524000</v>
+        <v>34060</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -9747,7 +9748,7 @@
       </c>
       <c r="D133">
         <f t="shared" si="8"/>
-        <v>528000</v>
+        <v>34584</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -9764,7 +9765,7 @@
       </c>
       <c r="D134">
         <f t="shared" si="8"/>
-        <v>532000</v>
+        <v>35112</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -9781,7 +9782,7 @@
       </c>
       <c r="D135">
         <f t="shared" si="8"/>
-        <v>536000</v>
+        <v>35644</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -9798,7 +9799,7 @@
       </c>
       <c r="D136">
         <f t="shared" si="8"/>
-        <v>540000</v>
+        <v>36180</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -9815,7 +9816,7 @@
       </c>
       <c r="D137">
         <f t="shared" si="8"/>
-        <v>544000</v>
+        <v>36720</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -9832,7 +9833,7 @@
       </c>
       <c r="D138">
         <f t="shared" si="8"/>
-        <v>548000</v>
+        <v>37264</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -9849,7 +9850,7 @@
       </c>
       <c r="D139">
         <f t="shared" si="8"/>
-        <v>552000</v>
+        <v>37812</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -9866,7 +9867,7 @@
       </c>
       <c r="D140">
         <f t="shared" si="8"/>
-        <v>556000</v>
+        <v>38364</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -9883,7 +9884,7 @@
       </c>
       <c r="D141">
         <f t="shared" si="8"/>
-        <v>560000</v>
+        <v>38920</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -9900,7 +9901,7 @@
       </c>
       <c r="D142">
         <f t="shared" si="8"/>
-        <v>564000</v>
+        <v>39480</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -9917,7 +9918,7 @@
       </c>
       <c r="D143">
         <f t="shared" si="8"/>
-        <v>568000</v>
+        <v>40044</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -9934,7 +9935,7 @@
       </c>
       <c r="D144">
         <f t="shared" si="8"/>
-        <v>572000</v>
+        <v>40612</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -9951,7 +9952,7 @@
       </c>
       <c r="D145">
         <f t="shared" si="8"/>
-        <v>576000</v>
+        <v>41184</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -9968,7 +9969,7 @@
       </c>
       <c r="D146">
         <f t="shared" si="8"/>
-        <v>580000</v>
+        <v>41760</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -9985,7 +9986,7 @@
       </c>
       <c r="D147">
         <f t="shared" si="8"/>
-        <v>584000</v>
+        <v>42340</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -10002,7 +10003,7 @@
       </c>
       <c r="D148">
         <f t="shared" si="8"/>
-        <v>588000</v>
+        <v>42924</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -10019,7 +10020,7 @@
       </c>
       <c r="D149">
         <f t="shared" si="8"/>
-        <v>592000</v>
+        <v>43512</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -10036,7 +10037,7 @@
       </c>
       <c r="D150">
         <f t="shared" si="8"/>
-        <v>596000</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -10053,7 +10054,7 @@
       </c>
       <c r="D151">
         <f t="shared" si="8"/>
-        <v>600000</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -10070,7 +10071,7 @@
       </c>
       <c r="D152">
         <f t="shared" si="8"/>
-        <v>604000</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -10087,7 +10088,7 @@
       </c>
       <c r="D153">
         <f t="shared" si="8"/>
-        <v>608000</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -10104,7 +10105,7 @@
       </c>
       <c r="D154">
         <f t="shared" si="8"/>
-        <v>612000</v>
+        <v>46512</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -10121,7 +10122,7 @@
       </c>
       <c r="D155">
         <f t="shared" si="8"/>
-        <v>616000</v>
+        <v>47124</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -10138,7 +10139,7 @@
       </c>
       <c r="D156">
         <f t="shared" si="8"/>
-        <v>620000</v>
+        <v>47740</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -10155,7 +10156,7 @@
       </c>
       <c r="D157">
         <f t="shared" si="8"/>
-        <v>624000</v>
+        <v>48360</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -10172,7 +10173,7 @@
       </c>
       <c r="D158">
         <f t="shared" si="8"/>
-        <v>628000</v>
+        <v>48984</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -10189,7 +10190,7 @@
       </c>
       <c r="D159">
         <f t="shared" si="8"/>
-        <v>632000</v>
+        <v>49612</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -10206,7 +10207,7 @@
       </c>
       <c r="D160">
         <f t="shared" si="8"/>
-        <v>636000</v>
+        <v>50244</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -10223,7 +10224,7 @@
       </c>
       <c r="D161">
         <f t="shared" si="8"/>
-        <v>640000</v>
+        <v>50880</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -10240,7 +10241,7 @@
       </c>
       <c r="D162">
         <f t="shared" si="8"/>
-        <v>644000</v>
+        <v>51520</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -10257,7 +10258,7 @@
       </c>
       <c r="D163">
         <f t="shared" si="8"/>
-        <v>648000</v>
+        <v>52164</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -10274,7 +10275,7 @@
       </c>
       <c r="D164">
         <f t="shared" si="8"/>
-        <v>652000</v>
+        <v>52812</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -10291,7 +10292,7 @@
       </c>
       <c r="D165">
         <f t="shared" si="8"/>
-        <v>656000</v>
+        <v>53464</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -10308,7 +10309,7 @@
       </c>
       <c r="D166">
         <f t="shared" si="8"/>
-        <v>660000</v>
+        <v>54120</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -10325,7 +10326,7 @@
       </c>
       <c r="D167">
         <f t="shared" si="8"/>
-        <v>664000</v>
+        <v>54780</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -10342,7 +10343,7 @@
       </c>
       <c r="D168">
         <f t="shared" si="8"/>
-        <v>668000</v>
+        <v>55444</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -10359,7 +10360,7 @@
       </c>
       <c r="D169">
         <f t="shared" si="8"/>
-        <v>672000</v>
+        <v>56112</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -10376,7 +10377,7 @@
       </c>
       <c r="D170">
         <f t="shared" si="8"/>
-        <v>676000</v>
+        <v>56784</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -10393,7 +10394,7 @@
       </c>
       <c r="D171">
         <f t="shared" si="8"/>
-        <v>680000</v>
+        <v>57460</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -10410,7 +10411,7 @@
       </c>
       <c r="D172">
         <f t="shared" si="8"/>
-        <v>684000</v>
+        <v>58140</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -10427,7 +10428,7 @@
       </c>
       <c r="D173">
         <f t="shared" si="8"/>
-        <v>688000</v>
+        <v>58824</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -10444,7 +10445,7 @@
       </c>
       <c r="D174">
         <f t="shared" si="8"/>
-        <v>692000</v>
+        <v>59512</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -10461,7 +10462,7 @@
       </c>
       <c r="D175">
         <f t="shared" si="8"/>
-        <v>696000</v>
+        <v>60204</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -10478,7 +10479,7 @@
       </c>
       <c r="D176">
         <f t="shared" si="8"/>
-        <v>700000</v>
+        <v>60900</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -10495,7 +10496,7 @@
       </c>
       <c r="D177">
         <f t="shared" si="8"/>
-        <v>704000</v>
+        <v>61600</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -10512,7 +10513,7 @@
       </c>
       <c r="D178">
         <f t="shared" si="8"/>
-        <v>708000</v>
+        <v>62304</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -10529,7 +10530,7 @@
       </c>
       <c r="D179">
         <f t="shared" si="8"/>
-        <v>712000</v>
+        <v>63012</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -10546,7 +10547,7 @@
       </c>
       <c r="D180">
         <f t="shared" si="8"/>
-        <v>716000</v>
+        <v>63724</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -10563,7 +10564,7 @@
       </c>
       <c r="D181">
         <f t="shared" si="8"/>
-        <v>720000</v>
+        <v>64440</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -10580,7 +10581,7 @@
       </c>
       <c r="D182">
         <f t="shared" si="8"/>
-        <v>724000</v>
+        <v>65160</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -10597,7 +10598,7 @@
       </c>
       <c r="D183">
         <f t="shared" si="8"/>
-        <v>728000</v>
+        <v>65884</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -10614,7 +10615,7 @@
       </c>
       <c r="D184">
         <f t="shared" si="8"/>
-        <v>732000</v>
+        <v>66612</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -10631,7 +10632,7 @@
       </c>
       <c r="D185">
         <f t="shared" si="8"/>
-        <v>736000</v>
+        <v>67344</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -10648,7 +10649,7 @@
       </c>
       <c r="D186">
         <f t="shared" si="8"/>
-        <v>740000</v>
+        <v>68080</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -10665,7 +10666,7 @@
       </c>
       <c r="D187">
         <f t="shared" si="8"/>
-        <v>744000</v>
+        <v>68820</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -10682,7 +10683,7 @@
       </c>
       <c r="D188">
         <f t="shared" si="8"/>
-        <v>748000</v>
+        <v>69564</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -10699,7 +10700,7 @@
       </c>
       <c r="D189">
         <f t="shared" si="8"/>
-        <v>752000</v>
+        <v>70312</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -10716,7 +10717,7 @@
       </c>
       <c r="D190">
         <f t="shared" si="8"/>
-        <v>756000</v>
+        <v>71064</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -10733,7 +10734,7 @@
       </c>
       <c r="D191">
         <f t="shared" si="8"/>
-        <v>760000</v>
+        <v>71820</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -10750,7 +10751,7 @@
       </c>
       <c r="D192">
         <f t="shared" si="8"/>
-        <v>764000</v>
+        <v>72580</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -10767,7 +10768,7 @@
       </c>
       <c r="D193">
         <f t="shared" si="8"/>
-        <v>768000</v>
+        <v>73344</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -10784,7 +10785,7 @@
       </c>
       <c r="D194">
         <f t="shared" si="8"/>
-        <v>772000</v>
+        <v>74112</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -10800,8 +10801,8 @@
         <v>81548</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="11">4000*A195</f>
-        <v>776000</v>
+        <f t="shared" ref="D195:D258" si="11">2*A195*A195 - 2*A195</f>
+        <v>74884</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -10818,7 +10819,7 @@
       </c>
       <c r="D196">
         <f t="shared" si="11"/>
-        <v>780000</v>
+        <v>75660</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -10835,7 +10836,7 @@
       </c>
       <c r="D197">
         <f t="shared" si="11"/>
-        <v>784000</v>
+        <v>76440</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -10852,7 +10853,7 @@
       </c>
       <c r="D198">
         <f t="shared" si="11"/>
-        <v>788000</v>
+        <v>77224</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -10869,7 +10870,7 @@
       </c>
       <c r="D199">
         <f t="shared" si="11"/>
-        <v>792000</v>
+        <v>78012</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -10886,7 +10887,7 @@
       </c>
       <c r="D200">
         <f t="shared" si="11"/>
-        <v>796000</v>
+        <v>78804</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -10903,7 +10904,7 @@
       </c>
       <c r="D201">
         <f t="shared" si="11"/>
-        <v>800000</v>
+        <v>79600</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -10920,7 +10921,7 @@
       </c>
       <c r="D202">
         <f t="shared" si="11"/>
-        <v>804000</v>
+        <v>80400</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -10937,7 +10938,7 @@
       </c>
       <c r="D203">
         <f t="shared" si="11"/>
-        <v>808000</v>
+        <v>81204</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -10954,7 +10955,7 @@
       </c>
       <c r="D204">
         <f t="shared" si="11"/>
-        <v>812000</v>
+        <v>82012</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -10971,7 +10972,7 @@
       </c>
       <c r="D205">
         <f t="shared" si="11"/>
-        <v>816000</v>
+        <v>82824</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -10988,7 +10989,7 @@
       </c>
       <c r="D206">
         <f t="shared" si="11"/>
-        <v>820000</v>
+        <v>83640</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -11005,7 +11006,7 @@
       </c>
       <c r="D207">
         <f t="shared" si="11"/>
-        <v>824000</v>
+        <v>84460</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -11022,7 +11023,7 @@
       </c>
       <c r="D208">
         <f t="shared" si="11"/>
-        <v>828000</v>
+        <v>85284</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -11039,7 +11040,7 @@
       </c>
       <c r="D209">
         <f t="shared" si="11"/>
-        <v>832000</v>
+        <v>86112</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -11056,7 +11057,7 @@
       </c>
       <c r="D210">
         <f t="shared" si="11"/>
-        <v>836000</v>
+        <v>86944</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -11073,7 +11074,7 @@
       </c>
       <c r="D211">
         <f t="shared" si="11"/>
-        <v>840000</v>
+        <v>87780</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -11090,7 +11091,7 @@
       </c>
       <c r="D212">
         <f t="shared" si="11"/>
-        <v>844000</v>
+        <v>88620</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -11107,7 +11108,7 @@
       </c>
       <c r="D213">
         <f t="shared" si="11"/>
-        <v>848000</v>
+        <v>89464</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -11124,7 +11125,7 @@
       </c>
       <c r="D214">
         <f t="shared" si="11"/>
-        <v>852000</v>
+        <v>90312</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -11141,7 +11142,7 @@
       </c>
       <c r="D215">
         <f t="shared" si="11"/>
-        <v>856000</v>
+        <v>91164</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -11158,7 +11159,7 @@
       </c>
       <c r="D216">
         <f t="shared" si="11"/>
-        <v>860000</v>
+        <v>92020</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -11175,7 +11176,7 @@
       </c>
       <c r="D217">
         <f t="shared" si="11"/>
-        <v>864000</v>
+        <v>92880</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -11192,7 +11193,7 @@
       </c>
       <c r="D218">
         <f t="shared" si="11"/>
-        <v>868000</v>
+        <v>93744</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -11209,7 +11210,7 @@
       </c>
       <c r="D219">
         <f t="shared" si="11"/>
-        <v>872000</v>
+        <v>94612</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -11226,7 +11227,7 @@
       </c>
       <c r="D220">
         <f t="shared" si="11"/>
-        <v>876000</v>
+        <v>95484</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -11243,7 +11244,7 @@
       </c>
       <c r="D221">
         <f t="shared" si="11"/>
-        <v>880000</v>
+        <v>96360</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -11260,7 +11261,7 @@
       </c>
       <c r="D222">
         <f t="shared" si="11"/>
-        <v>884000</v>
+        <v>97240</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -11277,7 +11278,7 @@
       </c>
       <c r="D223">
         <f t="shared" si="11"/>
-        <v>888000</v>
+        <v>98124</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -11294,7 +11295,7 @@
       </c>
       <c r="D224">
         <f t="shared" si="11"/>
-        <v>892000</v>
+        <v>99012</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -11311,7 +11312,7 @@
       </c>
       <c r="D225">
         <f t="shared" si="11"/>
-        <v>896000</v>
+        <v>99904</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -11328,7 +11329,7 @@
       </c>
       <c r="D226">
         <f t="shared" si="11"/>
-        <v>900000</v>
+        <v>100800</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -11345,7 +11346,7 @@
       </c>
       <c r="D227">
         <f t="shared" si="11"/>
-        <v>904000</v>
+        <v>101700</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -11362,7 +11363,7 @@
       </c>
       <c r="D228">
         <f t="shared" si="11"/>
-        <v>908000</v>
+        <v>102604</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -11379,7 +11380,7 @@
       </c>
       <c r="D229">
         <f t="shared" si="11"/>
-        <v>912000</v>
+        <v>103512</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -11396,7 +11397,7 @@
       </c>
       <c r="D230">
         <f t="shared" si="11"/>
-        <v>916000</v>
+        <v>104424</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -11413,7 +11414,7 @@
       </c>
       <c r="D231">
         <f t="shared" si="11"/>
-        <v>920000</v>
+        <v>105340</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -11430,7 +11431,7 @@
       </c>
       <c r="D232">
         <f t="shared" si="11"/>
-        <v>924000</v>
+        <v>106260</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -11447,7 +11448,7 @@
       </c>
       <c r="D233">
         <f t="shared" si="11"/>
-        <v>928000</v>
+        <v>107184</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -11464,7 +11465,7 @@
       </c>
       <c r="D234">
         <f t="shared" si="11"/>
-        <v>932000</v>
+        <v>108112</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -11481,7 +11482,7 @@
       </c>
       <c r="D235">
         <f t="shared" si="11"/>
-        <v>936000</v>
+        <v>109044</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -11498,7 +11499,7 @@
       </c>
       <c r="D236">
         <f t="shared" si="11"/>
-        <v>940000</v>
+        <v>109980</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -11515,7 +11516,7 @@
       </c>
       <c r="D237">
         <f t="shared" si="11"/>
-        <v>944000</v>
+        <v>110920</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -11532,7 +11533,7 @@
       </c>
       <c r="D238">
         <f t="shared" si="11"/>
-        <v>948000</v>
+        <v>111864</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -11549,7 +11550,7 @@
       </c>
       <c r="D239">
         <f t="shared" si="11"/>
-        <v>952000</v>
+        <v>112812</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -11566,7 +11567,7 @@
       </c>
       <c r="D240">
         <f t="shared" si="11"/>
-        <v>956000</v>
+        <v>113764</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -11583,7 +11584,7 @@
       </c>
       <c r="D241">
         <f t="shared" si="11"/>
-        <v>960000</v>
+        <v>114720</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -11600,7 +11601,7 @@
       </c>
       <c r="D242">
         <f t="shared" si="11"/>
-        <v>964000</v>
+        <v>115680</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -11617,7 +11618,7 @@
       </c>
       <c r="D243">
         <f t="shared" si="11"/>
-        <v>968000</v>
+        <v>116644</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -11634,7 +11635,7 @@
       </c>
       <c r="D244">
         <f t="shared" si="11"/>
-        <v>972000</v>
+        <v>117612</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -11651,7 +11652,7 @@
       </c>
       <c r="D245">
         <f t="shared" si="11"/>
-        <v>976000</v>
+        <v>118584</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -11668,7 +11669,7 @@
       </c>
       <c r="D246">
         <f t="shared" si="11"/>
-        <v>980000</v>
+        <v>119560</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -11685,7 +11686,7 @@
       </c>
       <c r="D247">
         <f t="shared" si="11"/>
-        <v>984000</v>
+        <v>120540</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -11702,7 +11703,7 @@
       </c>
       <c r="D248">
         <f t="shared" si="11"/>
-        <v>988000</v>
+        <v>121524</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -11719,7 +11720,7 @@
       </c>
       <c r="D249">
         <f t="shared" si="11"/>
-        <v>992000</v>
+        <v>122512</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -11736,7 +11737,7 @@
       </c>
       <c r="D250">
         <f t="shared" si="11"/>
-        <v>996000</v>
+        <v>123504</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -11753,7 +11754,7 @@
       </c>
       <c r="D251">
         <f t="shared" si="11"/>
-        <v>1000000</v>
+        <v>124500</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -11770,7 +11771,7 @@
       </c>
       <c r="D252">
         <f t="shared" si="11"/>
-        <v>1004000</v>
+        <v>125500</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -11787,7 +11788,7 @@
       </c>
       <c r="D253">
         <f t="shared" si="11"/>
-        <v>1008000</v>
+        <v>126504</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -11804,7 +11805,7 @@
       </c>
       <c r="D254">
         <f t="shared" si="11"/>
-        <v>1012000</v>
+        <v>127512</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -11821,7 +11822,7 @@
       </c>
       <c r="D255">
         <f t="shared" si="11"/>
-        <v>1016000</v>
+        <v>128524</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -11838,7 +11839,7 @@
       </c>
       <c r="D256">
         <f t="shared" si="11"/>
-        <v>1020000</v>
+        <v>129540</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -11855,7 +11856,7 @@
       </c>
       <c r="D257">
         <f t="shared" si="11"/>
-        <v>1024000</v>
+        <v>130560</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -11872,7 +11873,7 @@
       </c>
       <c r="D258">
         <f t="shared" si="11"/>
-        <v>1028000</v>
+        <v>131584</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -11888,8 +11889,8 @@
         <v>261644</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="14">4000*A259</f>
-        <v>1032000</v>
+        <f t="shared" ref="D259:D322" si="14">2*A259*A259 - 2*A259</f>
+        <v>132612</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -11906,7 +11907,7 @@
       </c>
       <c r="D260">
         <f t="shared" si="14"/>
-        <v>1036000</v>
+        <v>133644</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -11923,7 +11924,7 @@
       </c>
       <c r="D261">
         <f t="shared" si="14"/>
-        <v>1040000</v>
+        <v>134680</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -11940,7 +11941,7 @@
       </c>
       <c r="D262">
         <f t="shared" si="14"/>
-        <v>1044000</v>
+        <v>135720</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -11957,7 +11958,7 @@
       </c>
       <c r="D263">
         <f t="shared" si="14"/>
-        <v>1048000</v>
+        <v>136764</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -11974,7 +11975,7 @@
       </c>
       <c r="D264">
         <f t="shared" si="14"/>
-        <v>1052000</v>
+        <v>137812</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -11991,7 +11992,7 @@
       </c>
       <c r="D265">
         <f t="shared" si="14"/>
-        <v>1056000</v>
+        <v>138864</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -12008,7 +12009,7 @@
       </c>
       <c r="D266">
         <f t="shared" si="14"/>
-        <v>1060000</v>
+        <v>139920</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -12025,7 +12026,7 @@
       </c>
       <c r="D267">
         <f t="shared" si="14"/>
-        <v>1064000</v>
+        <v>140980</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -12042,7 +12043,7 @@
       </c>
       <c r="D268">
         <f t="shared" si="14"/>
-        <v>1068000</v>
+        <v>142044</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -12059,7 +12060,7 @@
       </c>
       <c r="D269">
         <f t="shared" si="14"/>
-        <v>1072000</v>
+        <v>143112</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -12076,7 +12077,7 @@
       </c>
       <c r="D270">
         <f t="shared" si="14"/>
-        <v>1076000</v>
+        <v>144184</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -12093,7 +12094,7 @@
       </c>
       <c r="D271">
         <f t="shared" si="14"/>
-        <v>1080000</v>
+        <v>145260</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -12110,7 +12111,7 @@
       </c>
       <c r="D272">
         <f t="shared" si="14"/>
-        <v>1084000</v>
+        <v>146340</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -12127,7 +12128,7 @@
       </c>
       <c r="D273">
         <f t="shared" si="14"/>
-        <v>1088000</v>
+        <v>147424</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -12144,7 +12145,7 @@
       </c>
       <c r="D274">
         <f t="shared" si="14"/>
-        <v>1092000</v>
+        <v>148512</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -12161,7 +12162,7 @@
       </c>
       <c r="D275">
         <f t="shared" si="14"/>
-        <v>1096000</v>
+        <v>149604</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -12178,7 +12179,7 @@
       </c>
       <c r="D276">
         <f t="shared" si="14"/>
-        <v>1100000</v>
+        <v>150700</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -12195,7 +12196,7 @@
       </c>
       <c r="D277">
         <f t="shared" si="14"/>
-        <v>1104000</v>
+        <v>151800</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -12212,7 +12213,7 @@
       </c>
       <c r="D278">
         <f t="shared" si="14"/>
-        <v>1108000</v>
+        <v>152904</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -12229,7 +12230,7 @@
       </c>
       <c r="D279">
         <f t="shared" si="14"/>
-        <v>1112000</v>
+        <v>154012</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -12246,7 +12247,7 @@
       </c>
       <c r="D280">
         <f t="shared" si="14"/>
-        <v>1116000</v>
+        <v>155124</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -12263,7 +12264,7 @@
       </c>
       <c r="D281">
         <f t="shared" si="14"/>
-        <v>1120000</v>
+        <v>156240</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -12280,7 +12281,7 @@
       </c>
       <c r="D282">
         <f t="shared" si="14"/>
-        <v>1124000</v>
+        <v>157360</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -12297,7 +12298,7 @@
       </c>
       <c r="D283">
         <f t="shared" si="14"/>
-        <v>1128000</v>
+        <v>158484</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -12314,7 +12315,7 @@
       </c>
       <c r="D284">
         <f t="shared" si="14"/>
-        <v>1132000</v>
+        <v>159612</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -12331,7 +12332,7 @@
       </c>
       <c r="D285">
         <f t="shared" si="14"/>
-        <v>1136000</v>
+        <v>160744</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -12348,7 +12349,7 @@
       </c>
       <c r="D286">
         <f t="shared" si="14"/>
-        <v>1140000</v>
+        <v>161880</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -12365,7 +12366,7 @@
       </c>
       <c r="D287">
         <f t="shared" si="14"/>
-        <v>1144000</v>
+        <v>163020</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -12382,7 +12383,7 @@
       </c>
       <c r="D288">
         <f t="shared" si="14"/>
-        <v>1148000</v>
+        <v>164164</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -12399,7 +12400,7 @@
       </c>
       <c r="D289">
         <f t="shared" si="14"/>
-        <v>1152000</v>
+        <v>165312</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -12416,7 +12417,7 @@
       </c>
       <c r="D290">
         <f t="shared" si="14"/>
-        <v>1156000</v>
+        <v>166464</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -12433,7 +12434,7 @@
       </c>
       <c r="D291">
         <f t="shared" si="14"/>
-        <v>1160000</v>
+        <v>167620</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -12450,7 +12451,7 @@
       </c>
       <c r="D292">
         <f t="shared" si="14"/>
-        <v>1164000</v>
+        <v>168780</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -12467,7 +12468,7 @@
       </c>
       <c r="D293">
         <f t="shared" si="14"/>
-        <v>1168000</v>
+        <v>169944</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -12484,7 +12485,7 @@
       </c>
       <c r="D294">
         <f t="shared" si="14"/>
-        <v>1172000</v>
+        <v>171112</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -12501,7 +12502,7 @@
       </c>
       <c r="D295">
         <f t="shared" si="14"/>
-        <v>1176000</v>
+        <v>172284</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -12518,7 +12519,7 @@
       </c>
       <c r="D296">
         <f t="shared" si="14"/>
-        <v>1180000</v>
+        <v>173460</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -12535,7 +12536,7 @@
       </c>
       <c r="D297">
         <f t="shared" si="14"/>
-        <v>1184000</v>
+        <v>174640</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -12552,7 +12553,7 @@
       </c>
       <c r="D298">
         <f t="shared" si="14"/>
-        <v>1188000</v>
+        <v>175824</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -12569,7 +12570,7 @@
       </c>
       <c r="D299">
         <f t="shared" si="14"/>
-        <v>1192000</v>
+        <v>177012</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -12586,7 +12587,7 @@
       </c>
       <c r="D300">
         <f t="shared" si="14"/>
-        <v>1196000</v>
+        <v>178204</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -12603,7 +12604,7 @@
       </c>
       <c r="D301">
         <f t="shared" si="14"/>
-        <v>1200000</v>
+        <v>179400</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -12620,7 +12621,7 @@
       </c>
       <c r="D302">
         <f t="shared" si="14"/>
-        <v>1204000</v>
+        <v>180600</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -12637,7 +12638,7 @@
       </c>
       <c r="D303">
         <f t="shared" si="14"/>
-        <v>1208000</v>
+        <v>181804</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -12654,7 +12655,7 @@
       </c>
       <c r="D304">
         <f t="shared" si="14"/>
-        <v>1212000</v>
+        <v>183012</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -12671,7 +12672,7 @@
       </c>
       <c r="D305">
         <f t="shared" si="14"/>
-        <v>1216000</v>
+        <v>184224</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -12688,7 +12689,7 @@
       </c>
       <c r="D306">
         <f t="shared" si="14"/>
-        <v>1220000</v>
+        <v>185440</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -12705,7 +12706,7 @@
       </c>
       <c r="D307">
         <f t="shared" si="14"/>
-        <v>1224000</v>
+        <v>186660</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -12722,7 +12723,7 @@
       </c>
       <c r="D308">
         <f t="shared" si="14"/>
-        <v>1228000</v>
+        <v>187884</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -12739,7 +12740,7 @@
       </c>
       <c r="D309">
         <f t="shared" si="14"/>
-        <v>1232000</v>
+        <v>189112</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -12756,7 +12757,7 @@
       </c>
       <c r="D310">
         <f t="shared" si="14"/>
-        <v>1236000</v>
+        <v>190344</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -12773,7 +12774,7 @@
       </c>
       <c r="D311">
         <f t="shared" si="14"/>
-        <v>1240000</v>
+        <v>191580</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -12790,7 +12791,7 @@
       </c>
       <c r="D312">
         <f t="shared" si="14"/>
-        <v>1244000</v>
+        <v>192820</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -12807,7 +12808,7 @@
       </c>
       <c r="D313">
         <f t="shared" si="14"/>
-        <v>1248000</v>
+        <v>194064</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -12824,7 +12825,7 @@
       </c>
       <c r="D314">
         <f t="shared" si="14"/>
-        <v>1252000</v>
+        <v>195312</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -12841,7 +12842,7 @@
       </c>
       <c r="D315">
         <f t="shared" si="14"/>
-        <v>1256000</v>
+        <v>196564</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -12858,7 +12859,7 @@
       </c>
       <c r="D316">
         <f t="shared" si="14"/>
-        <v>1260000</v>
+        <v>197820</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -12875,7 +12876,7 @@
       </c>
       <c r="D317">
         <f t="shared" si="14"/>
-        <v>1264000</v>
+        <v>199080</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -12892,7 +12893,7 @@
       </c>
       <c r="D318">
         <f t="shared" si="14"/>
-        <v>1268000</v>
+        <v>200344</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -12909,7 +12910,7 @@
       </c>
       <c r="D319">
         <f t="shared" si="14"/>
-        <v>1272000</v>
+        <v>201612</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -12926,7 +12927,7 @@
       </c>
       <c r="D320">
         <f t="shared" si="14"/>
-        <v>1276000</v>
+        <v>202884</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -12943,7 +12944,7 @@
       </c>
       <c r="D321">
         <f t="shared" si="14"/>
-        <v>1280000</v>
+        <v>204160</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -12960,7 +12961,7 @@
       </c>
       <c r="D322">
         <f t="shared" si="14"/>
-        <v>1284000</v>
+        <v>205440</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -12976,8 +12977,8 @@
         <v>277900</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="17">4000*A323</f>
-        <v>1288000</v>
+        <f t="shared" ref="D323:D386" si="17">2*A323*A323 - 2*A323</f>
+        <v>206724</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -12994,7 +12995,7 @@
       </c>
       <c r="D324">
         <f t="shared" si="17"/>
-        <v>1292000</v>
+        <v>208012</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -13011,7 +13012,7 @@
       </c>
       <c r="D325">
         <f t="shared" si="17"/>
-        <v>1296000</v>
+        <v>209304</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -13028,7 +13029,7 @@
       </c>
       <c r="D326">
         <f t="shared" si="17"/>
-        <v>1300000</v>
+        <v>210600</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -13045,7 +13046,7 @@
       </c>
       <c r="D327">
         <f t="shared" si="17"/>
-        <v>1304000</v>
+        <v>211900</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -13062,7 +13063,7 @@
       </c>
       <c r="D328">
         <f t="shared" si="17"/>
-        <v>1308000</v>
+        <v>213204</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -13079,7 +13080,7 @@
       </c>
       <c r="D329">
         <f t="shared" si="17"/>
-        <v>1312000</v>
+        <v>214512</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -13096,7 +13097,7 @@
       </c>
       <c r="D330">
         <f t="shared" si="17"/>
-        <v>1316000</v>
+        <v>215824</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -13113,7 +13114,7 @@
       </c>
       <c r="D331">
         <f t="shared" si="17"/>
-        <v>1320000</v>
+        <v>217140</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -13130,7 +13131,7 @@
       </c>
       <c r="D332">
         <f t="shared" si="17"/>
-        <v>1324000</v>
+        <v>218460</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -13147,7 +13148,7 @@
       </c>
       <c r="D333">
         <f t="shared" si="17"/>
-        <v>1328000</v>
+        <v>219784</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -13164,7 +13165,7 @@
       </c>
       <c r="D334">
         <f t="shared" si="17"/>
-        <v>1332000</v>
+        <v>221112</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -13181,7 +13182,7 @@
       </c>
       <c r="D335">
         <f t="shared" si="17"/>
-        <v>1336000</v>
+        <v>222444</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -13198,7 +13199,7 @@
       </c>
       <c r="D336">
         <f t="shared" si="17"/>
-        <v>1340000</v>
+        <v>223780</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -13215,7 +13216,7 @@
       </c>
       <c r="D337">
         <f t="shared" si="17"/>
-        <v>1344000</v>
+        <v>225120</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -13232,7 +13233,7 @@
       </c>
       <c r="D338">
         <f t="shared" si="17"/>
-        <v>1348000</v>
+        <v>226464</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -13249,7 +13250,7 @@
       </c>
       <c r="D339">
         <f t="shared" si="17"/>
-        <v>1352000</v>
+        <v>227812</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -13266,7 +13267,7 @@
       </c>
       <c r="D340">
         <f t="shared" si="17"/>
-        <v>1356000</v>
+        <v>229164</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -13283,7 +13284,7 @@
       </c>
       <c r="D341">
         <f t="shared" si="17"/>
-        <v>1360000</v>
+        <v>230520</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -13300,7 +13301,7 @@
       </c>
       <c r="D342">
         <f t="shared" si="17"/>
-        <v>1364000</v>
+        <v>231880</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -13317,7 +13318,7 @@
       </c>
       <c r="D343">
         <f t="shared" si="17"/>
-        <v>1368000</v>
+        <v>233244</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -13334,7 +13335,7 @@
       </c>
       <c r="D344">
         <f t="shared" si="17"/>
-        <v>1372000</v>
+        <v>234612</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -13351,7 +13352,7 @@
       </c>
       <c r="D345">
         <f t="shared" si="17"/>
-        <v>1376000</v>
+        <v>235984</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -13368,7 +13369,7 @@
       </c>
       <c r="D346">
         <f t="shared" si="17"/>
-        <v>1380000</v>
+        <v>237360</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -13385,7 +13386,7 @@
       </c>
       <c r="D347">
         <f t="shared" si="17"/>
-        <v>1384000</v>
+        <v>238740</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -13402,7 +13403,7 @@
       </c>
       <c r="D348">
         <f t="shared" si="17"/>
-        <v>1388000</v>
+        <v>240124</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -13419,7 +13420,7 @@
       </c>
       <c r="D349">
         <f t="shared" si="17"/>
-        <v>1392000</v>
+        <v>241512</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -13436,7 +13437,7 @@
       </c>
       <c r="D350">
         <f t="shared" si="17"/>
-        <v>1396000</v>
+        <v>242904</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -13453,7 +13454,7 @@
       </c>
       <c r="D351">
         <f t="shared" si="17"/>
-        <v>1400000</v>
+        <v>244300</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -13470,7 +13471,7 @@
       </c>
       <c r="D352">
         <f t="shared" si="17"/>
-        <v>1404000</v>
+        <v>245700</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -13487,7 +13488,7 @@
       </c>
       <c r="D353">
         <f t="shared" si="17"/>
-        <v>1408000</v>
+        <v>247104</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -13504,7 +13505,7 @@
       </c>
       <c r="D354">
         <f t="shared" si="17"/>
-        <v>1412000</v>
+        <v>248512</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -13521,7 +13522,7 @@
       </c>
       <c r="D355">
         <f t="shared" si="17"/>
-        <v>1416000</v>
+        <v>249924</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -13538,7 +13539,7 @@
       </c>
       <c r="D356">
         <f t="shared" si="17"/>
-        <v>1420000</v>
+        <v>251340</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -13555,7 +13556,7 @@
       </c>
       <c r="D357">
         <f t="shared" si="17"/>
-        <v>1424000</v>
+        <v>252760</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -13572,7 +13573,7 @@
       </c>
       <c r="D358">
         <f t="shared" si="17"/>
-        <v>1428000</v>
+        <v>254184</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -13589,7 +13590,7 @@
       </c>
       <c r="D359">
         <f t="shared" si="17"/>
-        <v>1432000</v>
+        <v>255612</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -13606,7 +13607,7 @@
       </c>
       <c r="D360">
         <f t="shared" si="17"/>
-        <v>1436000</v>
+        <v>257044</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -13623,7 +13624,7 @@
       </c>
       <c r="D361">
         <f t="shared" si="17"/>
-        <v>1440000</v>
+        <v>258480</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -13640,7 +13641,7 @@
       </c>
       <c r="D362">
         <f t="shared" si="17"/>
-        <v>1444000</v>
+        <v>259920</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -13657,7 +13658,7 @@
       </c>
       <c r="D363">
         <f t="shared" si="17"/>
-        <v>1448000</v>
+        <v>261364</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -13674,7 +13675,7 @@
       </c>
       <c r="D364">
         <f t="shared" si="17"/>
-        <v>1452000</v>
+        <v>262812</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -13691,7 +13692,7 @@
       </c>
       <c r="D365">
         <f t="shared" si="17"/>
-        <v>1456000</v>
+        <v>264264</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -13708,7 +13709,7 @@
       </c>
       <c r="D366">
         <f t="shared" si="17"/>
-        <v>1460000</v>
+        <v>265720</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -13725,7 +13726,7 @@
       </c>
       <c r="D367">
         <f t="shared" si="17"/>
-        <v>1464000</v>
+        <v>267180</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -13742,7 +13743,7 @@
       </c>
       <c r="D368">
         <f t="shared" si="17"/>
-        <v>1468000</v>
+        <v>268644</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -13759,7 +13760,7 @@
       </c>
       <c r="D369">
         <f t="shared" si="17"/>
-        <v>1472000</v>
+        <v>270112</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -13776,7 +13777,7 @@
       </c>
       <c r="D370">
         <f t="shared" si="17"/>
-        <v>1476000</v>
+        <v>271584</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -13793,7 +13794,7 @@
       </c>
       <c r="D371">
         <f t="shared" si="17"/>
-        <v>1480000</v>
+        <v>273060</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -13810,7 +13811,7 @@
       </c>
       <c r="D372">
         <f t="shared" si="17"/>
-        <v>1484000</v>
+        <v>274540</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -13827,7 +13828,7 @@
       </c>
       <c r="D373">
         <f t="shared" si="17"/>
-        <v>1488000</v>
+        <v>276024</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -13844,7 +13845,7 @@
       </c>
       <c r="D374">
         <f t="shared" si="17"/>
-        <v>1492000</v>
+        <v>277512</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -13861,7 +13862,7 @@
       </c>
       <c r="D375">
         <f t="shared" si="17"/>
-        <v>1496000</v>
+        <v>279004</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -13878,7 +13879,7 @@
       </c>
       <c r="D376">
         <f t="shared" si="17"/>
-        <v>1500000</v>
+        <v>280500</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -13895,7 +13896,7 @@
       </c>
       <c r="D377">
         <f t="shared" si="17"/>
-        <v>1504000</v>
+        <v>282000</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -13912,7 +13913,7 @@
       </c>
       <c r="D378">
         <f t="shared" si="17"/>
-        <v>1508000</v>
+        <v>283504</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -13929,7 +13930,7 @@
       </c>
       <c r="D379">
         <f t="shared" si="17"/>
-        <v>1512000</v>
+        <v>285012</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -13946,7 +13947,7 @@
       </c>
       <c r="D380">
         <f t="shared" si="17"/>
-        <v>1516000</v>
+        <v>286524</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -13963,7 +13964,7 @@
       </c>
       <c r="D381">
         <f t="shared" si="17"/>
-        <v>1520000</v>
+        <v>288040</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -13980,7 +13981,7 @@
       </c>
       <c r="D382">
         <f t="shared" si="17"/>
-        <v>1524000</v>
+        <v>289560</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -13997,7 +13998,7 @@
       </c>
       <c r="D383">
         <f t="shared" si="17"/>
-        <v>1528000</v>
+        <v>291084</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -14014,7 +14015,7 @@
       </c>
       <c r="D384">
         <f t="shared" si="17"/>
-        <v>1532000</v>
+        <v>292612</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -14031,7 +14032,7 @@
       </c>
       <c r="D385">
         <f t="shared" si="17"/>
-        <v>1536000</v>
+        <v>294144</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -14048,7 +14049,7 @@
       </c>
       <c r="D386">
         <f t="shared" si="17"/>
-        <v>1540000</v>
+        <v>295680</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -14064,8 +14065,8 @@
         <v>326924</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="20">4000*A387</f>
-        <v>1544000</v>
+        <f t="shared" ref="D387:D450" si="20">2*A387*A387 - 2*A387</f>
+        <v>297220</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -14082,7 +14083,7 @@
       </c>
       <c r="D388">
         <f t="shared" si="20"/>
-        <v>1548000</v>
+        <v>298764</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -14099,7 +14100,7 @@
       </c>
       <c r="D389">
         <f t="shared" si="20"/>
-        <v>1552000</v>
+        <v>300312</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -14116,7 +14117,7 @@
       </c>
       <c r="D390">
         <f t="shared" si="20"/>
-        <v>1556000</v>
+        <v>301864</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -14133,7 +14134,7 @@
       </c>
       <c r="D391">
         <f t="shared" si="20"/>
-        <v>1560000</v>
+        <v>303420</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -14150,7 +14151,7 @@
       </c>
       <c r="D392">
         <f t="shared" si="20"/>
-        <v>1564000</v>
+        <v>304980</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -14167,7 +14168,7 @@
       </c>
       <c r="D393">
         <f t="shared" si="20"/>
-        <v>1568000</v>
+        <v>306544</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -14184,7 +14185,7 @@
       </c>
       <c r="D394">
         <f t="shared" si="20"/>
-        <v>1572000</v>
+        <v>308112</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -14201,7 +14202,7 @@
       </c>
       <c r="D395">
         <f t="shared" si="20"/>
-        <v>1576000</v>
+        <v>309684</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -14218,7 +14219,7 @@
       </c>
       <c r="D396">
         <f t="shared" si="20"/>
-        <v>1580000</v>
+        <v>311260</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -14235,7 +14236,7 @@
       </c>
       <c r="D397">
         <f t="shared" si="20"/>
-        <v>1584000</v>
+        <v>312840</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -14252,7 +14253,7 @@
       </c>
       <c r="D398">
         <f t="shared" si="20"/>
-        <v>1588000</v>
+        <v>314424</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -14269,7 +14270,7 @@
       </c>
       <c r="D399">
         <f t="shared" si="20"/>
-        <v>1592000</v>
+        <v>316012</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -14286,7 +14287,7 @@
       </c>
       <c r="D400">
         <f t="shared" si="20"/>
-        <v>1596000</v>
+        <v>317604</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -14303,7 +14304,7 @@
       </c>
       <c r="D401">
         <f t="shared" si="20"/>
-        <v>1600000</v>
+        <v>319200</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -14320,7 +14321,7 @@
       </c>
       <c r="D402">
         <f t="shared" si="20"/>
-        <v>1604000</v>
+        <v>320800</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -14337,7 +14338,7 @@
       </c>
       <c r="D403">
         <f t="shared" si="20"/>
-        <v>1608000</v>
+        <v>322404</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -14354,7 +14355,7 @@
       </c>
       <c r="D404">
         <f t="shared" si="20"/>
-        <v>1612000</v>
+        <v>324012</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -14371,7 +14372,7 @@
       </c>
       <c r="D405">
         <f t="shared" si="20"/>
-        <v>1616000</v>
+        <v>325624</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -14388,7 +14389,7 @@
       </c>
       <c r="D406">
         <f t="shared" si="20"/>
-        <v>1620000</v>
+        <v>327240</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -14405,7 +14406,7 @@
       </c>
       <c r="D407">
         <f t="shared" si="20"/>
-        <v>1624000</v>
+        <v>328860</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -14422,7 +14423,7 @@
       </c>
       <c r="D408">
         <f t="shared" si="20"/>
-        <v>1628000</v>
+        <v>330484</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -14439,7 +14440,7 @@
       </c>
       <c r="D409">
         <f t="shared" si="20"/>
-        <v>1632000</v>
+        <v>332112</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -14456,7 +14457,7 @@
       </c>
       <c r="D410">
         <f t="shared" si="20"/>
-        <v>1636000</v>
+        <v>333744</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -14473,7 +14474,7 @@
       </c>
       <c r="D411">
         <f t="shared" si="20"/>
-        <v>1640000</v>
+        <v>335380</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -14490,7 +14491,7 @@
       </c>
       <c r="D412">
         <f t="shared" si="20"/>
-        <v>1644000</v>
+        <v>337020</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -14507,7 +14508,7 @@
       </c>
       <c r="D413">
         <f t="shared" si="20"/>
-        <v>1648000</v>
+        <v>338664</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -14524,7 +14525,7 @@
       </c>
       <c r="D414">
         <f t="shared" si="20"/>
-        <v>1652000</v>
+        <v>340312</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -14541,7 +14542,7 @@
       </c>
       <c r="D415">
         <f t="shared" si="20"/>
-        <v>1656000</v>
+        <v>341964</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -14558,7 +14559,7 @@
       </c>
       <c r="D416">
         <f t="shared" si="20"/>
-        <v>1660000</v>
+        <v>343620</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -14575,7 +14576,7 @@
       </c>
       <c r="D417">
         <f t="shared" si="20"/>
-        <v>1664000</v>
+        <v>345280</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -14592,7 +14593,7 @@
       </c>
       <c r="D418">
         <f t="shared" si="20"/>
-        <v>1668000</v>
+        <v>346944</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -14609,7 +14610,7 @@
       </c>
       <c r="D419">
         <f t="shared" si="20"/>
-        <v>1672000</v>
+        <v>348612</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -14626,7 +14627,7 @@
       </c>
       <c r="D420">
         <f t="shared" si="20"/>
-        <v>1676000</v>
+        <v>350284</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -14643,7 +14644,7 @@
       </c>
       <c r="D421">
         <f t="shared" si="20"/>
-        <v>1680000</v>
+        <v>351960</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -14660,7 +14661,7 @@
       </c>
       <c r="D422">
         <f t="shared" si="20"/>
-        <v>1684000</v>
+        <v>353640</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -14677,7 +14678,7 @@
       </c>
       <c r="D423">
         <f t="shared" si="20"/>
-        <v>1688000</v>
+        <v>355324</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -14694,7 +14695,7 @@
       </c>
       <c r="D424">
         <f t="shared" si="20"/>
-        <v>1692000</v>
+        <v>357012</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -14711,7 +14712,7 @@
       </c>
       <c r="D425">
         <f t="shared" si="20"/>
-        <v>1696000</v>
+        <v>358704</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -14728,7 +14729,7 @@
       </c>
       <c r="D426">
         <f t="shared" si="20"/>
-        <v>1700000</v>
+        <v>360400</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -14745,7 +14746,7 @@
       </c>
       <c r="D427">
         <f t="shared" si="20"/>
-        <v>1704000</v>
+        <v>362100</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -14762,7 +14763,7 @@
       </c>
       <c r="D428">
         <f t="shared" si="20"/>
-        <v>1708000</v>
+        <v>363804</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -14779,7 +14780,7 @@
       </c>
       <c r="D429">
         <f t="shared" si="20"/>
-        <v>1712000</v>
+        <v>365512</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -14796,7 +14797,7 @@
       </c>
       <c r="D430">
         <f t="shared" si="20"/>
-        <v>1716000</v>
+        <v>367224</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -14813,7 +14814,7 @@
       </c>
       <c r="D431">
         <f t="shared" si="20"/>
-        <v>1720000</v>
+        <v>368940</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -14830,7 +14831,7 @@
       </c>
       <c r="D432">
         <f t="shared" si="20"/>
-        <v>1724000</v>
+        <v>370660</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -14847,7 +14848,7 @@
       </c>
       <c r="D433">
         <f t="shared" si="20"/>
-        <v>1728000</v>
+        <v>372384</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -14864,7 +14865,7 @@
       </c>
       <c r="D434">
         <f t="shared" si="20"/>
-        <v>1732000</v>
+        <v>374112</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -14881,7 +14882,7 @@
       </c>
       <c r="D435">
         <f t="shared" si="20"/>
-        <v>1736000</v>
+        <v>375844</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -14898,7 +14899,7 @@
       </c>
       <c r="D436">
         <f t="shared" si="20"/>
-        <v>1740000</v>
+        <v>377580</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -14915,7 +14916,7 @@
       </c>
       <c r="D437">
         <f t="shared" si="20"/>
-        <v>1744000</v>
+        <v>379320</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -14932,7 +14933,7 @@
       </c>
       <c r="D438">
         <f t="shared" si="20"/>
-        <v>1748000</v>
+        <v>381064</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -14949,7 +14950,7 @@
       </c>
       <c r="D439">
         <f t="shared" si="20"/>
-        <v>1752000</v>
+        <v>382812</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -14966,7 +14967,7 @@
       </c>
       <c r="D440">
         <f t="shared" si="20"/>
-        <v>1756000</v>
+        <v>384564</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -14983,7 +14984,7 @@
       </c>
       <c r="D441">
         <f t="shared" si="20"/>
-        <v>1760000</v>
+        <v>386320</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -15000,7 +15001,7 @@
       </c>
       <c r="D442">
         <f t="shared" si="20"/>
-        <v>1764000</v>
+        <v>388080</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -15017,7 +15018,7 @@
       </c>
       <c r="D443">
         <f t="shared" si="20"/>
-        <v>1768000</v>
+        <v>389844</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -15034,7 +15035,7 @@
       </c>
       <c r="D444">
         <f t="shared" si="20"/>
-        <v>1772000</v>
+        <v>391612</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -15051,7 +15052,7 @@
       </c>
       <c r="D445">
         <f t="shared" si="20"/>
-        <v>1776000</v>
+        <v>393384</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -15068,7 +15069,7 @@
       </c>
       <c r="D446">
         <f t="shared" si="20"/>
-        <v>1780000</v>
+        <v>395160</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -15085,7 +15086,7 @@
       </c>
       <c r="D447">
         <f t="shared" si="20"/>
-        <v>1784000</v>
+        <v>396940</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -15102,7 +15103,7 @@
       </c>
       <c r="D448">
         <f t="shared" si="20"/>
-        <v>1788000</v>
+        <v>398724</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -15119,7 +15120,7 @@
       </c>
       <c r="D449">
         <f t="shared" si="20"/>
-        <v>1792000</v>
+        <v>400512</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -15136,7 +15137,7 @@
       </c>
       <c r="D450">
         <f t="shared" si="20"/>
-        <v>1796000</v>
+        <v>402304</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -15152,8 +15153,8 @@
         <v>343180</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D513" si="23">4000*A451</f>
-        <v>1800000</v>
+        <f t="shared" ref="D451:D513" si="23">2*A451*A451 - 2*A451</f>
+        <v>404100</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -15170,7 +15171,7 @@
       </c>
       <c r="D452">
         <f t="shared" si="23"/>
-        <v>1804000</v>
+        <v>405900</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -15187,7 +15188,7 @@
       </c>
       <c r="D453">
         <f t="shared" si="23"/>
-        <v>1808000</v>
+        <v>407704</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -15204,7 +15205,7 @@
       </c>
       <c r="D454">
         <f t="shared" si="23"/>
-        <v>1812000</v>
+        <v>409512</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -15221,7 +15222,7 @@
       </c>
       <c r="D455">
         <f t="shared" si="23"/>
-        <v>1816000</v>
+        <v>411324</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -15238,7 +15239,7 @@
       </c>
       <c r="D456">
         <f t="shared" si="23"/>
-        <v>1820000</v>
+        <v>413140</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -15255,7 +15256,7 @@
       </c>
       <c r="D457">
         <f t="shared" si="23"/>
-        <v>1824000</v>
+        <v>414960</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -15272,7 +15273,7 @@
       </c>
       <c r="D458">
         <f t="shared" si="23"/>
-        <v>1828000</v>
+        <v>416784</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -15289,7 +15290,7 @@
       </c>
       <c r="D459">
         <f t="shared" si="23"/>
-        <v>1832000</v>
+        <v>418612</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -15306,7 +15307,7 @@
       </c>
       <c r="D460">
         <f t="shared" si="23"/>
-        <v>1836000</v>
+        <v>420444</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -15323,7 +15324,7 @@
       </c>
       <c r="D461">
         <f t="shared" si="23"/>
-        <v>1840000</v>
+        <v>422280</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
@@ -15340,7 +15341,7 @@
       </c>
       <c r="D462">
         <f t="shared" si="23"/>
-        <v>1844000</v>
+        <v>424120</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
@@ -15357,7 +15358,7 @@
       </c>
       <c r="D463">
         <f t="shared" si="23"/>
-        <v>1848000</v>
+        <v>425964</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -15374,7 +15375,7 @@
       </c>
       <c r="D464">
         <f t="shared" si="23"/>
-        <v>1852000</v>
+        <v>427812</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
@@ -15391,7 +15392,7 @@
       </c>
       <c r="D465">
         <f t="shared" si="23"/>
-        <v>1856000</v>
+        <v>429664</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
@@ -15408,7 +15409,7 @@
       </c>
       <c r="D466">
         <f t="shared" si="23"/>
-        <v>1860000</v>
+        <v>431520</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
@@ -15425,7 +15426,7 @@
       </c>
       <c r="D467">
         <f t="shared" si="23"/>
-        <v>1864000</v>
+        <v>433380</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
@@ -15442,7 +15443,7 @@
       </c>
       <c r="D468">
         <f t="shared" si="23"/>
-        <v>1868000</v>
+        <v>435244</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -15459,7 +15460,7 @@
       </c>
       <c r="D469">
         <f t="shared" si="23"/>
-        <v>1872000</v>
+        <v>437112</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
@@ -15476,7 +15477,7 @@
       </c>
       <c r="D470">
         <f t="shared" si="23"/>
-        <v>1876000</v>
+        <v>438984</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
@@ -15493,7 +15494,7 @@
       </c>
       <c r="D471">
         <f t="shared" si="23"/>
-        <v>1880000</v>
+        <v>440860</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -15510,7 +15511,7 @@
       </c>
       <c r="D472">
         <f t="shared" si="23"/>
-        <v>1884000</v>
+        <v>442740</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -15527,7 +15528,7 @@
       </c>
       <c r="D473">
         <f t="shared" si="23"/>
-        <v>1888000</v>
+        <v>444624</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
@@ -15544,7 +15545,7 @@
       </c>
       <c r="D474">
         <f t="shared" si="23"/>
-        <v>1892000</v>
+        <v>446512</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
@@ -15561,7 +15562,7 @@
       </c>
       <c r="D475">
         <f t="shared" si="23"/>
-        <v>1896000</v>
+        <v>448404</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -15578,7 +15579,7 @@
       </c>
       <c r="D476">
         <f t="shared" si="23"/>
-        <v>1900000</v>
+        <v>450300</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
@@ -15595,7 +15596,7 @@
       </c>
       <c r="D477">
         <f t="shared" si="23"/>
-        <v>1904000</v>
+        <v>452200</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -15612,7 +15613,7 @@
       </c>
       <c r="D478">
         <f t="shared" si="23"/>
-        <v>1908000</v>
+        <v>454104</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
@@ -15629,7 +15630,7 @@
       </c>
       <c r="D479">
         <f t="shared" si="23"/>
-        <v>1912000</v>
+        <v>456012</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
@@ -15646,7 +15647,7 @@
       </c>
       <c r="D480">
         <f t="shared" si="23"/>
-        <v>1916000</v>
+        <v>457924</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -15663,7 +15664,7 @@
       </c>
       <c r="D481">
         <f t="shared" si="23"/>
-        <v>1920000</v>
+        <v>459840</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
@@ -15680,7 +15681,7 @@
       </c>
       <c r="D482">
         <f t="shared" si="23"/>
-        <v>1924000</v>
+        <v>461760</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
@@ -15697,7 +15698,7 @@
       </c>
       <c r="D483">
         <f t="shared" si="23"/>
-        <v>1928000</v>
+        <v>463684</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -15714,7 +15715,7 @@
       </c>
       <c r="D484">
         <f t="shared" si="23"/>
-        <v>1932000</v>
+        <v>465612</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
@@ -15731,7 +15732,7 @@
       </c>
       <c r="D485">
         <f t="shared" si="23"/>
-        <v>1936000</v>
+        <v>467544</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -15748,7 +15749,7 @@
       </c>
       <c r="D486">
         <f t="shared" si="23"/>
-        <v>1940000</v>
+        <v>469480</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -15765,7 +15766,7 @@
       </c>
       <c r="D487">
         <f t="shared" si="23"/>
-        <v>1944000</v>
+        <v>471420</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -15782,7 +15783,7 @@
       </c>
       <c r="D488">
         <f t="shared" si="23"/>
-        <v>1948000</v>
+        <v>473364</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -15799,7 +15800,7 @@
       </c>
       <c r="D489">
         <f t="shared" si="23"/>
-        <v>1952000</v>
+        <v>475312</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
@@ -15816,7 +15817,7 @@
       </c>
       <c r="D490">
         <f t="shared" si="23"/>
-        <v>1956000</v>
+        <v>477264</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -15833,7 +15834,7 @@
       </c>
       <c r="D491">
         <f t="shared" si="23"/>
-        <v>1960000</v>
+        <v>479220</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -15850,7 +15851,7 @@
       </c>
       <c r="D492">
         <f t="shared" si="23"/>
-        <v>1964000</v>
+        <v>481180</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
@@ -15867,7 +15868,7 @@
       </c>
       <c r="D493">
         <f t="shared" si="23"/>
-        <v>1968000</v>
+        <v>483144</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -15884,7 +15885,7 @@
       </c>
       <c r="D494">
         <f t="shared" si="23"/>
-        <v>1972000</v>
+        <v>485112</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -15901,7 +15902,7 @@
       </c>
       <c r="D495">
         <f t="shared" si="23"/>
-        <v>1976000</v>
+        <v>487084</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
@@ -15918,7 +15919,7 @@
       </c>
       <c r="D496">
         <f t="shared" si="23"/>
-        <v>1980000</v>
+        <v>489060</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
@@ -15935,7 +15936,7 @@
       </c>
       <c r="D497">
         <f t="shared" si="23"/>
-        <v>1984000</v>
+        <v>491040</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -15952,7 +15953,7 @@
       </c>
       <c r="D498">
         <f t="shared" si="23"/>
-        <v>1988000</v>
+        <v>493024</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -15969,7 +15970,7 @@
       </c>
       <c r="D499">
         <f t="shared" si="23"/>
-        <v>1992000</v>
+        <v>495012</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
@@ -15986,7 +15987,7 @@
       </c>
       <c r="D500">
         <f t="shared" si="23"/>
-        <v>1996000</v>
+        <v>497004</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -16003,7 +16004,7 @@
       </c>
       <c r="D501">
         <f t="shared" si="23"/>
-        <v>2000000</v>
+        <v>499000</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
@@ -16020,7 +16021,7 @@
       </c>
       <c r="D502">
         <f t="shared" si="23"/>
-        <v>2004000</v>
+        <v>501000</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
@@ -16037,7 +16038,7 @@
       </c>
       <c r="D503">
         <f t="shared" si="23"/>
-        <v>2008000</v>
+        <v>503004</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
@@ -16054,7 +16055,7 @@
       </c>
       <c r="D504">
         <f t="shared" si="23"/>
-        <v>2012000</v>
+        <v>505012</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -16071,7 +16072,7 @@
       </c>
       <c r="D505">
         <f t="shared" si="23"/>
-        <v>2016000</v>
+        <v>507024</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
@@ -16088,7 +16089,7 @@
       </c>
       <c r="D506">
         <f t="shared" si="23"/>
-        <v>2020000</v>
+        <v>509040</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -16105,7 +16106,7 @@
       </c>
       <c r="D507">
         <f t="shared" si="23"/>
-        <v>2024000</v>
+        <v>511060</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -16122,7 +16123,7 @@
       </c>
       <c r="D508">
         <f t="shared" si="23"/>
-        <v>2028000</v>
+        <v>513084</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -16139,7 +16140,7 @@
       </c>
       <c r="D509">
         <f t="shared" si="23"/>
-        <v>2032000</v>
+        <v>515112</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
@@ -16156,7 +16157,7 @@
       </c>
       <c r="D510">
         <f t="shared" si="23"/>
-        <v>2036000</v>
+        <v>517144</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
@@ -16173,7 +16174,7 @@
       </c>
       <c r="D511">
         <f t="shared" si="23"/>
-        <v>2040000</v>
+        <v>519180</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
@@ -16190,7 +16191,7 @@
       </c>
       <c r="D512">
         <f t="shared" si="23"/>
-        <v>2044000</v>
+        <v>521220</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
@@ -16207,7 +16208,7 @@
       </c>
       <c r="D513">
         <f t="shared" si="23"/>
-        <v>2048000</v>
+        <v>523264</v>
       </c>
     </row>
   </sheetData>
